--- a/Resultados - Paper/Fase 2/Fase 2 - Frende de Pareto - La Rita.xlsx
+++ b/Resultados - Paper/Fase 2/Fase 2 - Frende de Pareto - La Rita.xlsx
@@ -15,41 +15,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t xml:space="preserve"> 1S-Period-P 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2S-Period-P 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8S-Period-P 3</t>
-  </si>
-  <si>
     <t>ESN</t>
   </si>
   <si>
     <t>La Rita</t>
   </si>
   <si>
-    <t>LinearRegression</t>
-  </si>
-  <si>
-    <t>Neuronas= 228 - Leaking rate=0.07</t>
-  </si>
-  <si>
     <t>Neuronas= 249 - Leaking rate=0.07</t>
   </si>
   <si>
+    <t>SVR model con Kernel linear</t>
+  </si>
+  <si>
     <t>Segun-Config</t>
   </si>
   <si>
     <t>Todas</t>
   </si>
   <si>
-    <t>Unica*1</t>
-  </si>
-  <si>
     <t>algoritmo</t>
   </si>
   <si>
@@ -95,7 +83,19 @@
     <t>variables</t>
   </si>
   <si>
-    <t>{'copy_X': True, 'normalize': False, 'fit_intercept': False} - [ -96.21362806    0.2546847   179.89463688    0.73849594]</t>
+    <t>{'kernel': 'linear', 'C': 10, 'probability': False, 'degree': 1, 'epsilon': 0.1, 'shrinking': True, 'max_iter': -1, 'random_state': None, 'tol': 0.001, 'cache_size': 200, 'coef0': 0.0, 'gamma': 0.0, 'verbose': False} [[ -1.01694915e-01   3.58024691e-01   7.28925620e-01 ...,  -3.42857143e-01
+    4.80000000e-01   4.48365000e+03]
+ [  1.18644068e-01   8.64197531e-02   4.24793388e-01 ...,  -1.14285714e-01
+    7.60000000e-01   4.76420000e+03]
+ [  1.35593220e-01   1.11111111e-01   4.44628099e-01 ...,  -2.28571429e-01
+    9.00000000e-01   4.50041000e+03]
+ ..., 
+ [  1.35593220e-01   2.12345679e-01   3.95041322e-01 ...,   5.42857143e-01
+    8.40000000e-01   5.51376000e+03]
+ [  1.45762712e-01   1.70370370e-01   6.95867769e-01 ...,   7.42857143e-01
+    9.60000000e-01   5.18678000e+03]
+ [  2.30508475e-01   1.48148148e-02   5.76859504e-01 ...,   4.28571429e-01
+    9.60000000e-01   6.12564000e+03]]</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,69 +484,69 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -555,48 +555,48 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.551938548</v>
+        <v>0.595098815</v>
       </c>
       <c r="N2" t="n">
-        <v>382.13408260000006</v>
+        <v>353.3291105</v>
       </c>
       <c r="O2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>1534</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -605,78 +605,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>528</v>
+        <v>623</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.552199791</v>
+        <v>0.693287203</v>
       </c>
       <c r="N3" t="n">
-        <v>385.73892539999997</v>
+        <v>520.5609193</v>
       </c>
       <c r="O3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>623</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.693287203</v>
-      </c>
-      <c r="N4" t="n">
-        <v>520.5609193</v>
-      </c>
-      <c r="O4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
